--- a/public/templates/_templat_pendaftaran_techlympic.xlsx
+++ b/public/templates/_templat_pendaftaran_techlympic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a-job\data\mockup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a-job\github\syaifulazham\techlympic-node\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78BB7A78-3EC1-4F26-AC61-B3599F6755A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D60D7-0E84-4A13-A85C-E47AAD2B896C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3690" windowWidth="21600" windowHeight="11295" xr2:uid="{2A79554E-2ED8-43C8-AB43-8A2C46E38C0A}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{2A79554E-2ED8-43C8-AB43-8A2C46E38C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,19 +402,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D9474F-88CE-4BE6-AE3A-1BEF4E0DCC41}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -428,5 +428,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>